--- a/Projects Tracker.xlsx
+++ b/Projects Tracker.xlsx
@@ -2,26 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clcuk-my.sharepoint.com/personal/deepaf_clc-uk_org/Documents/Deepa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{1CEAC869-9105-427B-B6B9-DB365B296D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A4DD1A0-9AE2-43E0-A144-7A3A26D124E3}"/>
+  <xr:revisionPtr revIDLastSave="493" documentId="13_ncr:1_{1CEAC869-9105-427B-B6B9-DB365B296D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1463F290-4FE5-4A0F-A69E-EDCD951BC3BB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6EAB35B3-D3A0-4B91-9FC4-9BE7DF0B6453}"/>
+    <workbookView xWindow="-23148" yWindow="12852" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6EAB35B3-D3A0-4B91-9FC4-9BE7DF0B6453}"/>
   </bookViews>
   <sheets>
     <sheet name="REFERENCE_KEY" sheetId="1" r:id="rId1"/>
     <sheet name="OVERVIEW" sheetId="2" r:id="rId2"/>
-    <sheet name="DAILY_TRACKER" sheetId="3" r:id="rId3"/>
+    <sheet name="DAILY_TRACKER" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DAILY_TRACKER!$B$1:$AC$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OVERVIEW!$A$1:$E$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DAILY_TRACKER!$A$1:$AT$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OVERVIEW!$A$1:$E$45</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,10 +44,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B85C75D6-33C6-4191-8BB5-15F73254BC2A}</author>
+    <author>tc={2CBA0830-79F7-4BC2-8233-965420E91861}</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{B85C75D6-33C6-4191-8BB5-15F73254BC2A}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{2CBA0830-79F7-4BC2-8233-965420E91861}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,104 +61,137 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="72">
+  <si>
+    <t>PROJECTS</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFERENCE KEY </t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEMATIC REVIEW OF REFERRAL ARRANGEMENTS </t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>POLICY</t>
+  </si>
+  <si>
+    <t>OVERVIEW</t>
+  </si>
+  <si>
+    <t>COMPENDIUM</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>COMPENSATION FUND</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>MONITORING</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+  </si>
+  <si>
+    <t>DAILY_TRACKER</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Column Number</t>
+  </si>
   <si>
     <t>Tasks</t>
   </si>
   <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Duration- In Days*</t>
+  </si>
+  <si>
+    <t>RA -DISCOVERY PHASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA- Read CLC Handbook </t>
+  </si>
+  <si>
+    <t>RA -Review Inspection logs</t>
+  </si>
+  <si>
     <t>RA-Read the Project Plan</t>
   </si>
   <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
     <t>RA- Review monitoring team's Inspection logs for 2024</t>
   </si>
   <si>
     <t>RA- Review monitoring team's Inspection logs for 2025</t>
   </si>
   <si>
+    <t>RA- Review monitoring team's Inspection logs for 2020</t>
+  </si>
+  <si>
+    <t>RA- Review monitoring team's Inspection logs for 2021</t>
+  </si>
+  <si>
+    <t>RA- Review monitoring team's Inspection logs for 2022</t>
+  </si>
+  <si>
+    <t>RA- Review monitoring team's Inspection logs for 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RA- Review Annual Regulatory Return for 2025</t>
+  </si>
+  <si>
+    <t>RA- Review Annual Regulatory Return for 2024</t>
+  </si>
+  <si>
+    <t>RA- ANALYSIS PHASE</t>
+  </si>
+  <si>
+    <t>RA- Questions and Feedback</t>
+  </si>
+  <si>
+    <t>RA -DOCUMENTATION PHASE</t>
+  </si>
+  <si>
     <t>RA- Write Project Requirements Specification (PRS)</t>
   </si>
   <si>
-    <t>RA- Review Annual Regulatory Return for 2024</t>
-  </si>
-  <si>
-    <t>RA- Review monitoring team's Inspection logs for 2020</t>
-  </si>
-  <si>
-    <t>RA- Review monitoring team's Inspection logs for 2021</t>
-  </si>
-  <si>
-    <t>RA- Review monitoring team's Inspection logs for 2022</t>
-  </si>
-  <si>
-    <t>RA- Review monitoring team's Inspection logs for 2023</t>
-  </si>
-  <si>
-    <t>RA- Questions and Feedback</t>
-  </si>
-  <si>
-    <t>RA- Review Annual Regulatory Return for 2025</t>
-  </si>
-  <si>
-    <t>RA -Review Inspection logs</t>
-  </si>
-  <si>
     <t>RA- Document results of Analysis phase</t>
   </si>
   <si>
     <t>RA- Final Report for review &amp; publication</t>
   </si>
   <si>
-    <t xml:space="preserve">RA- Read CLC Handbook </t>
-  </si>
-  <si>
-    <t xml:space="preserve">THEMATIC REVIEW OF REFERRAL ARRANGEMENTS </t>
-  </si>
-  <si>
-    <t>PROJECTS</t>
-  </si>
-  <si>
-    <t>POLICY</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>TEAM</t>
-  </si>
-  <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <t>COMPENDIUM</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>COMPENSATION FUND</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>MONITORING</t>
-  </si>
-  <si>
-    <t>RA -DISCOVERY PHASE</t>
-  </si>
-  <si>
-    <t>RA- ANALYSIS PHASE</t>
-  </si>
-  <si>
-    <t>RA -DOCUMENTATION PHASE</t>
-  </si>
-  <si>
     <t>CF - DISCOVERY PHASE</t>
   </si>
   <si>
@@ -168,98 +201,89 @@
     <t>CF- Review Gaddes Noble paper files for 16 claimants</t>
   </si>
   <si>
+    <t>CF- ANALYSIS PHASE</t>
+  </si>
+  <si>
+    <t>CF- Scan paper files of 16 claimants sent by Gaddes Noble</t>
+  </si>
+  <si>
     <t>CF - Download scanned files to relevant folder</t>
   </si>
   <si>
-    <t>CF- ANALYSIS PHASE</t>
-  </si>
-  <si>
     <t>CF -DOCUMENTATION PHASE</t>
   </si>
   <si>
-    <t>CF -Prepare final report on claims for Monitoring team review</t>
-  </si>
-  <si>
-    <t>CF - Download files from Leap database to relevant folders</t>
-  </si>
-  <si>
-    <t>CF- Cross check all files against master list and amend where necessary</t>
-  </si>
-  <si>
-    <t>CF- Scan paper files of 16 claimants sent by Gaddes Noble</t>
-  </si>
-  <si>
-    <t>Duration- In Days*</t>
-  </si>
-  <si>
     <t>C-  DISCOVERY PHASE</t>
   </si>
   <si>
     <t>C - Review of Corporate register of Policies</t>
   </si>
   <si>
-    <t>C - Write PRS – Requirements spec of end goal, business requirements and scope</t>
+    <t>C- ANALYSIS PHASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C- Gap Analysis of codes on CLC website against the Corporate Register </t>
+  </si>
+  <si>
+    <t>C -DOCUMENTATION PHASE</t>
   </si>
   <si>
     <t>C- Update the Corporate Register to add the missing Policy codes from the CLC Code of Conduct.</t>
   </si>
   <si>
-    <t xml:space="preserve">C- Gap Analysis of codes on CLC website against the Corporate Register </t>
-  </si>
-  <si>
     <t>C-Review Regulatory Standards ppt – Governance, Leadership and Operational and assess how the various codes map to each level, highlight any gaps and add more information where appropriate</t>
   </si>
   <si>
-    <t>C- ANALYSIS PHASE</t>
+    <t>C- Prepare Compendium report for review</t>
   </si>
   <si>
     <t>This is an estimate of duration rather than effort- as it also includes any overlapping tasks.</t>
   </si>
   <si>
-    <t>C -DOCUMENTATION PHASE</t>
-  </si>
-  <si>
-    <t>C- Prepare Compendium report for review</t>
-  </si>
-  <si>
     <t>Dates</t>
   </si>
   <si>
-    <t>TAB</t>
-  </si>
-  <si>
-    <t>OVERVIEW</t>
-  </si>
-  <si>
-    <t>COMPLETE</t>
-  </si>
-  <si>
-    <t>DAILY_TRACKER</t>
-  </si>
-  <si>
-    <t>IN PROGRESS</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFERENCE KEY </t>
-  </si>
-  <si>
-    <t>Column Number</t>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>CF- Check whether risks been highlighted by conveyancer to claimants.</t>
+  </si>
+  <si>
+    <t>CF- Check Status of developments and practices -update findings in master list</t>
+  </si>
+  <si>
+    <t>CF - Download files from LEAP database to relevant folders</t>
+  </si>
+  <si>
+    <t>CF-Review doiwnloaded files from LEAP database</t>
+  </si>
+  <si>
+    <t>CF- Write Project Requirements Specification (PRS) for review and sign -off by Wayne/Monitoring team</t>
+  </si>
+  <si>
+    <t>CF - Final Updated Master List on claims sent to Monitoring team for review</t>
+  </si>
+  <si>
+    <t>C - Write PRS – Requirements spec</t>
+  </si>
+  <si>
+    <t>C-  Scope out business requirements with Catherine</t>
+  </si>
+  <si>
+    <t>RA - Review sample Reports for Analysis</t>
+  </si>
+  <si>
+    <t>RA- Pick the 3 Small, Large and Medium sized practices to review</t>
+  </si>
+  <si>
+    <t>CF- Box to contain 16 sets of files ( as per Lee's checklist – in black and bold)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +321,14 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,12 +361,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,18 +373,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -545,21 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -586,56 +595,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -651,21 +617,56 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -675,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,9 +699,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -722,10 +720,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -742,43 +737,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -786,30 +750,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,56 +759,147 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,9 +977,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>OVERVIEW!$B$2:$B$38</c:f>
+              <c:f>OVERVIEW!$B$2:$B$45</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>RA -DISCOVERY PHASE</c:v>
                 </c:pt>
@@ -962,102 +993,123 @@
                   <c:v>RA-Read the Project Plan</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>RA - Review sample Reports for Analysis</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>RA- Review monitoring team's Inspection logs for 2024</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>RA- Pick the 3 Small, Large and Medium sized practices to review</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>RA- Review monitoring team's Inspection logs for 2025</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>RA- Review monitoring team's Inspection logs for 2020</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>RA- Review monitoring team's Inspection logs for 2021</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>RA- Review monitoring team's Inspection logs for 2022</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>RA- Review monitoring team's Inspection logs for 2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>RA- Review Annual Regulatory Return for 2025</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>RA- Review Annual Regulatory Return for 2024</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>RA- Write Project Requirements Specification (PRS)</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>RA- ANALYSIS PHASE</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>RA- Questions and Feedback</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>RA -DOCUMENTATION PHASE</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>RA- Write Project Requirements Specification (PRS)</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>RA- Document results of Analysis phase</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>RA- Final Report for review &amp; publication</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>CF - DISCOVERY PHASE</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>CF- Review Development Breakdown in the Master List</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>CF- Box to contain 16 sets of files ( as per Lee's checklist – in black and bold)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>CF- Write Project Requirements Specification (PRS) for review and sign -off by Wayne/Monitoring team</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CF- Check Status of developments and practices -update findings in master list</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>CF- Scan paper files of 16 claimants sent by Gaddes Noble</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CF - Download scanned files to relevant folder</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>CF - Download files from LEAP database to relevant folders</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CF- ANALYSIS PHASE</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>CF- Review Gaddes Noble paper files for 16 claimants</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>CF- ANALYSIS PHASE</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>CF- Scan paper files of 16 claimants sent by Gaddes Noble</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>CF - Download scanned files to relevant folder</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>CF - Download files from Leap database to relevant folders</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>CF- Cross check all files against master list and amend where necessary</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
+                  <c:v>CF- Check whether risks been highlighted by conveyancer to claimants.</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>CF-Review doiwnloaded files from LEAP database</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>CF -DOCUMENTATION PHASE</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>CF -Prepare final report on claims for Monitoring team review</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
+                  <c:v>CF - Final Updated Master List on claims sent to Monitoring team for review</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>C-  DISCOVERY PHASE</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
+                  <c:v>C-  Scope out business requirements with Catherine</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>C - Review of Corporate register of Policies</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>C - Write PRS – Requirements spec of end goal, business requirements and scope</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="37">
+                  <c:v>C - Write PRS – Requirements spec</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>C- ANALYSIS PHASE</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
                   <c:v>C- Gap Analysis of codes on CLC website against the Corporate Register </c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="40">
                   <c:v>C -DOCUMENTATION PHASE</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="41">
                   <c:v>C- Update the Corporate Register to add the missing Policy codes from the CLC Code of Conduct.</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="42">
                   <c:v>C-Review Regulatory Standards ppt – Governance, Leadership and Operational and assess how the various codes map to each level, highlight any gaps and add more information where appropriate</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="43">
                   <c:v>C- Prepare Compendium report for review</c:v>
                 </c:pt>
               </c:strCache>
@@ -1065,10 +1117,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OVERVIEW!$C$2:$C$38</c:f>
+              <c:f>OVERVIEW!$C$2:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>46035</c:v>
                 </c:pt>
@@ -1085,100 +1137,121 @@
                   <c:v>46050</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>46050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46057</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46064</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46069</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46078</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46083</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46076</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46058</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46062</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46050</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46050</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>46055</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>46178</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46064</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46069</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46072</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="18">
                   <c:v>46055</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>46049</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>46050</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>46050</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>46055</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>46055</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>46055</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>46083</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>46035</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>46035</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>46043</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
+                  <c:v>46058</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>46041</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>46044</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>46044</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>46065</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
+                  <c:v>46083</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>46041</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>46100</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>46100</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>46036</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>46048</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>46048</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46078</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46041</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46064</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46064</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46048</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>46069</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>46050</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
                   <c:v>46036</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="40">
                   <c:v>46076</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="41">
                   <c:v>46076</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="42">
                   <c:v>46036</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>46093</c:v>
+                <c:pt idx="43">
+                  <c:v>46097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1215,9 +1288,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>OVERVIEW!$B$2:$B$38</c:f>
+              <c:f>OVERVIEW!$B$2:$B$45</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>RA -DISCOVERY PHASE</c:v>
                 </c:pt>
@@ -1231,102 +1304,123 @@
                   <c:v>RA-Read the Project Plan</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>RA - Review sample Reports for Analysis</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>RA- Review monitoring team's Inspection logs for 2024</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>RA- Pick the 3 Small, Large and Medium sized practices to review</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>RA- Review monitoring team's Inspection logs for 2025</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>RA- Review monitoring team's Inspection logs for 2020</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>RA- Review monitoring team's Inspection logs for 2021</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>RA- Review monitoring team's Inspection logs for 2022</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>RA- Review monitoring team's Inspection logs for 2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>RA- Review Annual Regulatory Return for 2025</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>RA- Review Annual Regulatory Return for 2024</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>RA- Write Project Requirements Specification (PRS)</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>RA- ANALYSIS PHASE</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>RA- Questions and Feedback</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>RA -DOCUMENTATION PHASE</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>RA- Write Project Requirements Specification (PRS)</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>RA- Document results of Analysis phase</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>RA- Final Report for review &amp; publication</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>CF - DISCOVERY PHASE</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>CF- Review Development Breakdown in the Master List</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>CF- Box to contain 16 sets of files ( as per Lee's checklist – in black and bold)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>CF- Write Project Requirements Specification (PRS) for review and sign -off by Wayne/Monitoring team</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CF- Check Status of developments and practices -update findings in master list</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>CF- Scan paper files of 16 claimants sent by Gaddes Noble</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CF - Download scanned files to relevant folder</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>CF - Download files from LEAP database to relevant folders</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CF- ANALYSIS PHASE</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>CF- Review Gaddes Noble paper files for 16 claimants</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>CF- ANALYSIS PHASE</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>CF- Scan paper files of 16 claimants sent by Gaddes Noble</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>CF - Download scanned files to relevant folder</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>CF - Download files from Leap database to relevant folders</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>CF- Cross check all files against master list and amend where necessary</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
+                  <c:v>CF- Check whether risks been highlighted by conveyancer to claimants.</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>CF-Review doiwnloaded files from LEAP database</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>CF -DOCUMENTATION PHASE</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>CF -Prepare final report on claims for Monitoring team review</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
+                  <c:v>CF - Final Updated Master List on claims sent to Monitoring team for review</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>C-  DISCOVERY PHASE</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
+                  <c:v>C-  Scope out business requirements with Catherine</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>C - Review of Corporate register of Policies</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>C - Write PRS – Requirements spec of end goal, business requirements and scope</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="37">
+                  <c:v>C - Write PRS – Requirements spec</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>C- ANALYSIS PHASE</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
                   <c:v>C- Gap Analysis of codes on CLC website against the Corporate Register </c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="40">
                   <c:v>C -DOCUMENTATION PHASE</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="41">
                   <c:v>C- Update the Corporate Register to add the missing Policy codes from the CLC Code of Conduct.</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="42">
                   <c:v>C-Review Regulatory Standards ppt – Governance, Leadership and Operational and assess how the various codes map to each level, highlight any gaps and add more information where appropriate</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="43">
                   <c:v>C- Prepare Compendium report for review</c:v>
                 </c:pt>
               </c:strCache>
@@ -1334,27 +1428,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OVERVIEW!$E$2:$E$38</c:f>
+              <c:f>OVERVIEW!$E$2:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
@@ -1369,57 +1469,99 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="38">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="40">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="42">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="43">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -2162,7 +2304,7 @@
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2514,7 +2656,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B10" dT="2026-01-28T10:22:06.72" personId="{1A243E66-E67F-41DA-9790-04557F66ADE0}" id="{B85C75D6-33C6-4191-8BB5-15F73254BC2A}">
+  <threadedComment ref="A10" dT="2026-01-28T10:22:06.72" personId="{1A243E66-E67F-41DA-9790-04557F66ADE0}" id="{2CBA0830-79F7-4BC2-8233-965420E91861}">
     <text xml:space="preserve">Staff Day - From 1300-1700
 </text>
   </threadedComment>
@@ -2526,118 +2668,118 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+        <v>7</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>60</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>57</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2647,96 +2789,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F1B45C-1245-460A-960F-F850A386BF33}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="51.33203125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="11.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="51.28515625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="3" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>42</v>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>23</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48">
+    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="58">
         <v>46035</v>
       </c>
-      <c r="D2" s="8">
-        <v>46058</v>
-      </c>
-      <c r="E2" s="36"/>
+      <c r="D2" s="58">
+        <v>46085</v>
+      </c>
+      <c r="E2" s="59">
+        <v>25</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="49">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>17</v>
+      <c r="B3" s="64" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>46035</v>
       </c>
       <c r="D3" s="5">
-        <v>46050</v>
-      </c>
-      <c r="E3" s="15">
+        <v>46062</v>
+      </c>
+      <c r="E3" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="50">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>14</v>
+      <c r="B4" s="64" t="s">
+        <v>26</v>
       </c>
       <c r="C4" s="5">
         <v>46041</v>
       </c>
       <c r="D4" s="5">
-        <v>46058</v>
-      </c>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="49">
+        <v>46085</v>
+      </c>
+      <c r="E4" s="44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>1</v>
+      <c r="B5" s="64" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="5">
         <v>46041</v>
@@ -2744,1259 +2890,1757 @@
       <c r="D5" s="5">
         <v>46048</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="50">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="47">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>4</v>
+      <c r="B6" s="65" t="s">
+        <v>69</v>
       </c>
       <c r="C6" s="5">
         <v>46050</v>
       </c>
       <c r="D6" s="5">
+        <v>46064</v>
+      </c>
+      <c r="E6" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5">
+        <v>46050</v>
+      </c>
+      <c r="D7" s="5">
+        <v>46058</v>
+      </c>
+      <c r="E7" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
+        <v>7</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="62">
         <v>46057</v>
       </c>
-      <c r="E6" s="15">
+      <c r="D8" s="62">
+        <v>46062</v>
+      </c>
+      <c r="E8" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5">
+        <v>46062</v>
+      </c>
+      <c r="D9" s="5">
+        <v>46064</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5">
+        <v>46064</v>
+      </c>
+      <c r="D10" s="5">
+        <v>46069</v>
+      </c>
+      <c r="E10" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="49">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5">
-        <v>46055</v>
-      </c>
-      <c r="D7" s="5">
-        <v>46057</v>
-      </c>
-      <c r="E7" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="50">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5">
-        <v>46178</v>
-      </c>
-      <c r="D8" s="5">
-        <v>46062</v>
-      </c>
-      <c r="E8" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="49">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5">
-        <v>46064</v>
-      </c>
-      <c r="D9" s="5">
-        <v>46065</v>
-      </c>
-      <c r="E9" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="50">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="B11" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5">
         <v>46069</v>
-      </c>
-      <c r="D10" s="5">
-        <v>46071</v>
-      </c>
-      <c r="E10" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="49">
-        <v>10</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5">
-        <v>46072</v>
       </c>
       <c r="D11" s="5">
         <v>46078</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>2</v>
       </c>
-      <c r="M11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="50">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5">
+        <v>46078</v>
+      </c>
+      <c r="D12" s="5">
+        <v>46083</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5">
+        <v>46083</v>
+      </c>
+      <c r="D13" s="5">
+        <v>46085</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="C12" s="5">
+      <c r="B14" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5">
+        <v>46076</v>
+      </c>
+      <c r="D14" s="5">
+        <v>46078</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5">
+        <v>46058</v>
+      </c>
+      <c r="D15" s="5">
+        <v>46062</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5">
+        <v>46062</v>
+      </c>
+      <c r="D16" s="5">
+        <v>46064</v>
+      </c>
+      <c r="E16" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="10">
+        <v>46050</v>
+      </c>
+      <c r="D17" s="58">
+        <v>46085</v>
+      </c>
+      <c r="E17" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5">
+        <v>46050</v>
+      </c>
+      <c r="D18" s="5">
+        <v>46078</v>
+      </c>
+      <c r="E18" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="10">
         <v>46055</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D19" s="10">
+        <v>46092</v>
+      </c>
+      <c r="E19" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5">
+        <v>46055</v>
+      </c>
+      <c r="D20" s="5">
+        <v>46092</v>
+      </c>
+      <c r="E20" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>20</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="62">
+        <v>46083</v>
+      </c>
+      <c r="D21" s="62">
+        <v>46092</v>
+      </c>
+      <c r="E21" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="10">
+        <v>46035</v>
+      </c>
+      <c r="D22" s="10">
+        <v>46113</v>
+      </c>
+      <c r="E22" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>22</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5">
+        <v>46035</v>
+      </c>
+      <c r="D23" s="5">
+        <v>46041</v>
+      </c>
+      <c r="E23" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="5">
+        <v>46043</v>
+      </c>
+      <c r="D24" s="5">
+        <v>46058</v>
+      </c>
+      <c r="E24" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>24</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="5">
+        <v>46058</v>
+      </c>
+      <c r="D25" s="5">
+        <v>46064</v>
+      </c>
+      <c r="E25" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="5">
+        <v>46041</v>
+      </c>
+      <c r="D26" s="5">
+        <v>13227</v>
+      </c>
+      <c r="E26" s="44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>26</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5">
+        <v>46044</v>
+      </c>
+      <c r="D27" s="5">
         <v>46078</v>
       </c>
-      <c r="E12" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="49">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5">
-        <v>46049</v>
-      </c>
-      <c r="D13" s="5">
-        <v>46055</v>
-      </c>
-      <c r="E13" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="50">
-        <v>13</v>
-      </c>
-      <c r="B14" s="34" t="s">
+      <c r="E27" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="5">
+        <v>46044</v>
+      </c>
+      <c r="D28" s="5">
+        <v>46078</v>
+      </c>
+      <c r="E28" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>28</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="5">
+        <v>46083</v>
+      </c>
+      <c r="D29" s="5">
+        <v>46104</v>
+      </c>
+      <c r="E29" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="10">
+        <v>46041</v>
+      </c>
+      <c r="D30" s="10">
+        <v>46120</v>
+      </c>
+      <c r="E30" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
         <v>30</v>
       </c>
-      <c r="C14" s="11">
-        <v>46050</v>
-      </c>
-      <c r="D14" s="11">
-        <v>46078</v>
-      </c>
-      <c r="E14" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="49">
-        <v>14</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5">
-        <v>46050</v>
-      </c>
-      <c r="D15" s="5">
-        <v>46078</v>
-      </c>
-      <c r="E15" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="50">
-        <v>15</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="11">
-        <v>46055</v>
-      </c>
-      <c r="D16" s="11">
-        <v>46093</v>
-      </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="49">
-        <v>16</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5">
-        <v>46055</v>
-      </c>
-      <c r="D17" s="5">
-        <v>46057</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="50">
-        <v>17</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5">
-        <v>46055</v>
-      </c>
-      <c r="D18" s="5">
-        <v>46079</v>
-      </c>
-      <c r="E18" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="49">
-        <v>18</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="11">
-        <v>46083</v>
-      </c>
-      <c r="D19" s="11">
-        <v>46093</v>
-      </c>
-      <c r="E19" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="50">
-        <v>19</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="11">
-        <v>46035</v>
-      </c>
-      <c r="D20" s="11">
-        <v>46100</v>
-      </c>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="49">
-        <v>20</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="5">
-        <v>46035</v>
-      </c>
-      <c r="D21" s="5">
-        <v>46041</v>
-      </c>
-      <c r="E21" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="50">
-        <v>21</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5">
-        <v>46043</v>
-      </c>
-      <c r="D22" s="5">
-        <v>46111</v>
-      </c>
-      <c r="E22" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="49">
-        <v>22</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="11">
-        <v>46041</v>
-      </c>
-      <c r="D23" s="11">
-        <v>46100</v>
-      </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="50">
-        <v>23</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="5">
-        <v>46044</v>
-      </c>
-      <c r="D24" s="5">
-        <v>46079</v>
-      </c>
-      <c r="E24" s="15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="49">
-        <v>24</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="5">
-        <v>46044</v>
-      </c>
-      <c r="D25" s="5">
-        <v>46079</v>
-      </c>
-      <c r="E25" s="15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="50">
-        <v>25</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="5">
-        <v>46065</v>
-      </c>
-      <c r="D26" s="5">
-        <v>46079</v>
-      </c>
-      <c r="E26" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="49">
-        <v>26</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="5">
-        <v>46041</v>
-      </c>
-      <c r="D27" s="5">
-        <v>46100</v>
-      </c>
-      <c r="E27" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="50">
-        <v>27</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="11">
-        <v>46100</v>
-      </c>
-      <c r="D28" s="11">
-        <v>46107</v>
-      </c>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="49">
-        <v>28</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="11">
-        <v>46100</v>
-      </c>
-      <c r="D29" s="11">
-        <v>46114</v>
-      </c>
-      <c r="E29" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="50">
-        <v>29</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="11">
-        <v>46036</v>
-      </c>
-      <c r="D30" s="11">
-        <v>46079</v>
-      </c>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="49">
-        <v>30</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>44</v>
+      <c r="B31" s="49" t="s">
+        <v>45</v>
       </c>
       <c r="C31" s="5">
         <v>46048</v>
       </c>
       <c r="D31" s="5">
+        <v>46113</v>
+      </c>
+      <c r="E31" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="5">
+        <v>46048</v>
+      </c>
+      <c r="D32" s="5">
+        <v>46099</v>
+      </c>
+      <c r="E32" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="28">
+        <v>32</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="5">
+        <v>46078</v>
+      </c>
+      <c r="D33" s="5">
+        <v>46106</v>
+      </c>
+      <c r="E33" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="29">
+        <v>33</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="10">
+        <v>46100</v>
+      </c>
+      <c r="D34" s="10">
+        <v>46107</v>
+      </c>
+      <c r="E34" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <v>34</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="62">
+        <v>46041</v>
+      </c>
+      <c r="D35" s="62">
+        <v>46120</v>
+      </c>
+      <c r="E35" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="29">
+        <v>35</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="50">
+        <v>46064</v>
+      </c>
+      <c r="D36" s="50">
+        <v>46092</v>
+      </c>
+      <c r="E36" s="61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="28">
+        <v>36</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="5">
+        <v>46064</v>
+      </c>
+      <c r="D37" s="5">
+        <v>46092</v>
+      </c>
+      <c r="E37" s="44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="29">
+        <v>37</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="5">
+        <v>46048</v>
+      </c>
+      <c r="D38" s="5">
         <v>46069</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E38" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="50">
-        <v>31</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="28">
+        <v>38</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="5">
         <v>46069</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D39" s="5">
         <v>46079</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E39" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="49">
-        <v>32</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="29">
+        <v>39</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="10">
         <v>46050</v>
       </c>
-      <c r="D33" s="5">
-        <v>46093</v>
-      </c>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="50">
-        <v>33</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="D40" s="10">
+        <v>46106</v>
+      </c>
+      <c r="E40" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="28">
+        <v>40</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="5">
         <v>46036</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D41" s="5">
+        <v>46106</v>
+      </c>
+      <c r="E41" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="29">
+        <v>41</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="10">
         <v>46076</v>
       </c>
-      <c r="E34" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="49">
-        <v>34</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="D42" s="10">
+        <v>46120</v>
+      </c>
+      <c r="E42" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="28">
+        <v>42</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="5">
         <v>46076</v>
       </c>
-      <c r="D35" s="11">
-        <v>46107</v>
-      </c>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="50">
-        <v>35</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="5">
-        <v>46076</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="D43" s="5">
         <v>46111</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E43" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="49">
-        <v>36</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="5">
+    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="29">
+        <v>43</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="5">
         <v>46036</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D44" s="5">
         <v>46111</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E44" s="14">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="51">
-        <v>37</v>
-      </c>
-      <c r="B38" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="38">
-        <v>46093</v>
-      </c>
-      <c r="D38" s="38">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="28">
+        <v>44</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="25">
+        <v>46097</v>
+      </c>
+      <c r="D45" s="25">
         <v>46120</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E45" s="26">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C50" s="12">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="11">
         <v>46035</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D53" s="63">
         <v>46120</v>
       </c>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E64" s="9"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E65" s="9"/>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E66" s="9"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E66" xr:uid="{86F1B45C-1245-460A-960F-F850A386BF33}"/>
+  <autoFilter ref="A1:E41" xr:uid="{86F1B45C-1245-460A-960F-F850A386BF33}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE61AE9E-8BC3-40B3-86F2-66CDC86847C3}">
-  <dimension ref="A1:AC13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ECC078-F1B1-4C4A-9027-1163134864E1}">
+  <dimension ref="A1:AT14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="19" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" customWidth="1"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" customWidth="1"/>
-    <col min="22" max="22" width="12.88671875" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="14.109375" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" customWidth="1"/>
-    <col min="26" max="26" width="9.109375" customWidth="1"/>
-    <col min="27" max="27" width="10.88671875" customWidth="1"/>
-    <col min="28" max="28" width="13.109375" customWidth="1"/>
-    <col min="29" max="29" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="26" max="26" width="28.28515625" customWidth="1"/>
+    <col min="27" max="27" width="27.85546875" customWidth="1"/>
+    <col min="28" max="28" width="25.42578125" customWidth="1"/>
+    <col min="30" max="30" width="30.85546875" customWidth="1"/>
+    <col min="32" max="32" width="28.140625" customWidth="1"/>
+    <col min="33" max="33" width="25.140625" customWidth="1"/>
+    <col min="36" max="36" width="25.85546875" customWidth="1"/>
+    <col min="38" max="38" width="19.28515625" customWidth="1"/>
+    <col min="39" max="39" width="17.28515625" customWidth="1"/>
+    <col min="42" max="42" width="49.7109375" customWidth="1"/>
+    <col min="43" max="43" width="24" customWidth="1"/>
+    <col min="44" max="44" width="28.85546875" customWidth="1"/>
+    <col min="45" max="45" width="57.42578125" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:46" ht="165" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="AE1" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH1" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL1" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP1" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="AQ1" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR1" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS1" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT1" s="74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2" s="75">
+        <v>46035</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="76"/>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" s="75">
+        <v>46036</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="76"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" s="75">
+        <v>46038</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="76"/>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" s="75">
+        <v>46041</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="76"/>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" s="75">
+        <v>46043</v>
+      </c>
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="C6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="23"/>
+      <c r="AR6" s="23"/>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="76"/>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
+        <v>46044</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="23"/>
+      <c r="AT7" s="76"/>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8" s="75">
+        <v>46048</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="76"/>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
+        <v>46049</v>
+      </c>
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="C9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="23"/>
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23"/>
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="76"/>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
+        <v>46050</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="23"/>
+      <c r="AL10" s="23"/>
+      <c r="AM10" s="23"/>
+      <c r="AN10" s="23"/>
+      <c r="AO10" s="23"/>
+      <c r="AP10" s="23"/>
+      <c r="AQ10" s="23"/>
+      <c r="AR10" s="23"/>
+      <c r="AS10" s="23"/>
+      <c r="AT10" s="76"/>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
+        <v>46055</v>
+      </c>
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="C11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="23"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="23"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="23"/>
+      <c r="AS11" s="23"/>
+      <c r="AT11" s="76"/>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12" s="75">
+        <v>46057</v>
+      </c>
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="C12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="23"/>
+      <c r="AL12" s="23"/>
+      <c r="AM12" s="23"/>
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="23"/>
+      <c r="AP12" s="23"/>
+      <c r="AQ12" s="23"/>
+      <c r="AR12" s="23"/>
+      <c r="AS12" s="23"/>
+      <c r="AT12" s="76"/>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
+        <v>46058</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="23"/>
+      <c r="AL13" s="23"/>
+      <c r="AM13" s="23"/>
+      <c r="AN13" s="23"/>
+      <c r="AO13" s="23"/>
+      <c r="AP13" s="23"/>
+      <c r="AQ13" s="23"/>
+      <c r="AR13" s="23"/>
+      <c r="AS13" s="23"/>
+      <c r="AT13" s="76"/>
+    </row>
+    <row r="14" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="77">
+        <v>46062</v>
+      </c>
+      <c r="B14" s="32">
         <v>13</v>
       </c>
-      <c r="L1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA1" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB1" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
-        <v>1</v>
-      </c>
-      <c r="B2" s="68">
-        <v>46035</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="52">
-        <v>2</v>
-      </c>
-      <c r="B3" s="68">
-        <v>46036</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="52">
-        <v>3</v>
-      </c>
-      <c r="B4" s="68">
-        <v>46038</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="52">
-        <v>4</v>
-      </c>
-      <c r="B5" s="68">
-        <v>46041</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="52">
-        <v>5</v>
-      </c>
-      <c r="B6" s="68">
-        <v>46043</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="52">
-        <v>6</v>
-      </c>
-      <c r="B7" s="68">
-        <v>46044</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="52">
-        <v>7</v>
-      </c>
-      <c r="B8" s="68">
-        <v>46048</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="52">
-        <v>8</v>
-      </c>
-      <c r="B9" s="68">
-        <v>46049</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="52">
-        <v>9</v>
-      </c>
-      <c r="B10" s="68">
-        <v>46050</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="52">
-        <v>10</v>
-      </c>
-      <c r="B11" s="68">
-        <v>46055</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="68">
-        <v>46057</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="68">
-        <v>46058</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="78"/>
+      <c r="AE14" s="78"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="78"/>
+      <c r="AH14" s="78"/>
+      <c r="AI14" s="78"/>
+      <c r="AJ14" s="78"/>
+      <c r="AK14" s="78"/>
+      <c r="AL14" s="78"/>
+      <c r="AM14" s="78"/>
+      <c r="AN14" s="78"/>
+      <c r="AO14" s="78"/>
+      <c r="AP14" s="78"/>
+      <c r="AQ14" s="78"/>
+      <c r="AR14" s="78"/>
+      <c r="AS14" s="78"/>
+      <c r="AT14" s="80"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AC10" xr:uid="{BE61AE9E-8BC3-40B3-86F2-66CDC86847C3}"/>
+  <autoFilter ref="A1:AT1" xr:uid="{19ECC078-F1B1-4C4A-9027-1163134864E1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
